--- a/data/Events.xlsx
+++ b/data/Events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sihou\Nextcloud\Studium\TIL Python Programming TIL6022\Project\Group-13---Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3D963D-3656-46CA-85C6-0F77262A9ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA2A4B-8A34-4FD8-8FC4-3563B485E655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="833" yWindow="-98" windowWidth="19784" windowHeight="13875" xr2:uid="{0DD88D09-33D0-4F7E-BA0A-92926894877C}"/>
+    <workbookView xWindow="930" yWindow="3390" windowWidth="13680" windowHeight="9982" activeTab="1" xr2:uid="{0DD88D09-33D0-4F7E-BA0A-92926894877C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -115,6 +115,78 @@
   </si>
   <si>
     <t>First fairs take place again</t>
+  </si>
+  <si>
+    <t>Restaurants reopen with mask obligations</t>
+  </si>
+  <si>
+    <t>Most measures for outdoor activities lifted; many measures for inside activities are eased</t>
+  </si>
+  <si>
+    <t>New measures decided, such as more mask obligations and more rules for high-incidence municipalities</t>
+  </si>
+  <si>
+    <t>Federal Government decides on "Lockdown light" from 2nd of November: closed restaurants, only two households are allowed to meet, leisure facilities closed</t>
+  </si>
+  <si>
+    <t>Lockdown tightened as there is no change in figures</t>
+  </si>
+  <si>
+    <t>Lockdown extended until 10th of January</t>
+  </si>
+  <si>
+    <t>Decision on hard lockdown from 16th of December: most shops closed, schools closed, maximum of five people from two households to meet</t>
+  </si>
+  <si>
+    <t>Start of vaccination campagne</t>
+  </si>
+  <si>
+    <t>Lockdown tightened and extended until end of January: only one person from another household to meet</t>
+  </si>
+  <si>
+    <t>Lockdown tightened and extended until 14th of February: medical masks or FFP2-masks required</t>
+  </si>
+  <si>
+    <t>Lockdown extended until 7th of March, Decision on easing from incidence of 35 or below over one week for provinces</t>
+  </si>
+  <si>
+    <t>First bigger ease of Lockdown: schools and some shops reopen, two households are allowed to meet with not more than five people; despite rising numbers</t>
+  </si>
+  <si>
+    <t>Free antigen-tests for all, tests necessary for many activities such as shopping</t>
+  </si>
+  <si>
+    <t>Emergency-Brake measures in place for high-incidence areas</t>
+  </si>
+  <si>
+    <t>No measures anymore for vaccinated and recovered people , besides mask obligation</t>
+  </si>
+  <si>
+    <t>Decision on hard lockdown over easter</t>
+  </si>
+  <si>
+    <t>Tourism allowed in all provinces again</t>
+  </si>
+  <si>
+    <t>Emergency-Brake measures expired, more and more facilities are open, many with 3G-rule (vaccinated, recovered or tested)</t>
+  </si>
+  <si>
+    <t>Incidence to be abandoned, Hospitalisation rate decisive for measures</t>
+  </si>
+  <si>
+    <t>First provinces to lift more measures</t>
+  </si>
+  <si>
+    <t>More 3G and 2G (only vaccinated and recovered) rules for activities to prevent new Lockdown</t>
+  </si>
+  <si>
+    <t>https://www.mdr.de/nachrichten/jahresrueckblick/corona-nachrichten-jahresrueckblick-chronologie-100.html#sprung8</t>
+  </si>
+  <si>
+    <t>Hrsg</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -467,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7884036B-A111-4910-AB0E-59671FE1F09E}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -618,51 +690,327 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>43998</v>
+        <v>43962</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>44006</v>
+        <v>43997</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>44051</v>
+        <v>43998</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>44068</v>
+        <v>44006</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
         <v>44079</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <v>44201</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <v>44215</v>
+      </c>
+      <c r="B26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <v>44238</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <v>44263</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <v>44278</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <v>44277</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <v>44310</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <v>44325</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <v>44341</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <v>44377</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <v>44431</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <v>44469</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
+        <v>44515</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -672,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE641679-B2D0-47EC-88AC-3C15E5CCC747}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -684,6 +1032,12 @@
       <c r="A1" t="s">
         <v>12</v>
       </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -698,12 +1052,23 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/Events.xlsx
+++ b/data/Events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sihou\Nextcloud\Studium\TIL Python Programming TIL6022\Project\Group-13---Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA2A4B-8A34-4FD8-8FC4-3563B485E655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA90402-DDAD-481C-80C6-A7F950207D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="3390" windowWidth="13680" windowHeight="9982" activeTab="1" xr2:uid="{0DD88D09-33D0-4F7E-BA0A-92926894877C}"/>
+    <workbookView xWindow="840" yWindow="-98" windowWidth="19777" windowHeight="13875" activeTab="1" xr2:uid="{0DD88D09-33D0-4F7E-BA0A-92926894877C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -187,16 +187,39 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>Contact Measures for non-vaccinated people and more 2G</t>
+  </si>
+  <si>
+    <t>First provinces to loosen 2G and 3G measures</t>
+  </si>
+  <si>
+    <t>End of most measures, some provinces with temporary extension</t>
+  </si>
+  <si>
+    <t>Extensions end, only measure to remain: mask obligations in public transport and medical facilities</t>
+  </si>
+  <si>
+    <t>https://www.mdr.de/nachrichten/jahresrueckblick/corona-chronologie-jahresrueckblick-102.html#sprung8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,14 +242,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -539,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7884036B-A111-4910-AB0E-59671FE1F09E}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1013,6 +1039,59 @@
         <v>11</v>
       </c>
     </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
+        <v>44532</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
+        <v>44640</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
+        <v>44653</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1020,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE641679-B2D0-47EC-88AC-3C15E5CCC747}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1046,7 +1125,7 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1063,16 +1142,31 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{48830E07-E240-4610-B988-BD44C701D99B}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{D9DCD5D9-5C1C-4367-B043-C228F82F3EDD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Events.xlsx
+++ b/data/Events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sihou\Nextcloud\Studium\TIL Python Programming TIL6022\Project\Group-13---Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA90402-DDAD-481C-80C6-A7F950207D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A964E04-FAD8-4B80-9541-0429DF1CDF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-98" windowWidth="19777" windowHeight="13875" activeTab="1" xr2:uid="{0DD88D09-33D0-4F7E-BA0A-92926894877C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -202,6 +202,24 @@
   </si>
   <si>
     <t>https://www.mdr.de/nachrichten/jahresrueckblick/corona-chronologie-jahresrueckblick-102.html#sprung8</t>
+  </si>
+  <si>
+    <t>Omikron prevalent variant</t>
+  </si>
+  <si>
+    <t>RKI</t>
+  </si>
+  <si>
+    <t>Mitteldeutscher Rundfunk</t>
+  </si>
+  <si>
+    <t>Robert-Koch-Institut</t>
+  </si>
+  <si>
+    <t>https://www.rki.de/DE/Content/InfAZ/N/Neuartiges_Coronavirus/Virusvariante.html</t>
+  </si>
+  <si>
+    <t>Table under the text</t>
   </si>
 </sst>
 </file>
@@ -565,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7884036B-A111-4910-AB0E-59671FE1F09E}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1052,13 +1070,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>44593</v>
+        <v>44557</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
@@ -1066,10 +1084,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44640</v>
+        <v>44593</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
         <v>10</v>
@@ -1080,15 +1098,29 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
+        <v>44640</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
         <v>44653</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>53</v>
       </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1099,15 +1131,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE641679-B2D0-47EC-88AC-3C15E5CCC747}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1118,40 +1150,40 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1160,6 +1192,20 @@
       </c>
       <c r="C5" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
